--- a/data/trans_dic/P23_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 25,41</t>
+          <t>3,01; 29,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,35</t>
+          <t>0,0; 20,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 20,81</t>
+          <t>0,0; 14,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,58</t>
+          <t>0,0; 22,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 14,96</t>
+          <t>4,58; 25,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 17,73</t>
+          <t>0,0; 14,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 18,29</t>
+          <t>4,12; 25,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 7,46</t>
+          <t>2,2; 21,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 16,69</t>
+          <t>6,11; 22,8</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 12,4</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 15,31</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 15,77</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20,1%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 16,88</t>
+          <t>0,0; 15,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 15,27</t>
+          <t>0,0; 15,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 37,4</t>
+          <t>4,39; 49,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,1; 33,32</t>
+          <t>2,87; 50,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,91; 39,05</t>
+          <t>10,39; 30,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 27,71</t>
+          <t>14,69; 38,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 22,54</t>
+          <t>8,59; 28,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 24,07</t>
+          <t>13,63; 37,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,86; 28,83</t>
+          <t>6,1; 19,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,33; 22,73</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 37,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10,01; 42,21</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>19,11%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>27,45%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>23,48%</t>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23,87%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,29%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 29,25</t>
+          <t>13,55; 33,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 40,48</t>
+          <t>15,56; 38,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 38,62</t>
+          <t>10,03; 31,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 32,39</t>
+          <t>22,31; 47,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,98; 35,43</t>
+          <t>17,06; 34,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,83; 33,96</t>
+          <t>21,27; 38,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,2; 28,57</t>
+          <t>18,82; 36,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,13; 35,48</t>
+          <t>12,39; 28,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,87; 32,74</t>
+          <t>17,65; 31,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,74; 35,17</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>17,14; 31,41</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18,58; 32,88</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>41,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>25,03%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30,75%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 20,59</t>
+          <t>3,94; 17,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 26,58</t>
+          <t>13,0; 32,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 21,6</t>
+          <t>7,96; 24,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,65; 38,5</t>
+          <t>15,22; 35,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,3; 41,77</t>
+          <t>28,85; 46,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,08; 39,23</t>
+          <t>31,96; 52,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,62; 28,96</t>
+          <t>25,96; 44,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,21; 32,9</t>
+          <t>27,46; 46,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,6; 28,41</t>
+          <t>18,99; 31,24</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 41,76</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18,85; 31,47</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24,28; 38,21</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>24,15%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39,52%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 23,16</t>
+          <t>8,84; 27,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 27,44</t>
+          <t>9,89; 28,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,27; 34,0</t>
+          <t>11,53; 38,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,92; 37,52</t>
+          <t>23,49; 50,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,71; 49,0</t>
+          <t>20,69; 48,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,18; 36,75</t>
+          <t>27,35; 54,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,32; 27,48</t>
+          <t>16,23; 42,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,5; 35,47</t>
+          <t>29,59; 57,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,73; 31,24</t>
+          <t>16,83; 32,98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 36,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,78; 35,32</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>31,04; 51,62</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>54,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16,8%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42,27%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 26,01</t>
+          <t>8,13; 32,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,64; 21,54</t>
+          <t>6,29; 33,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 23,51</t>
+          <t>4,49; 26,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,25; 38,71</t>
+          <t>12,81; 42,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,18; 33,29</t>
+          <t>12,64; 38,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,69; 30,98</t>
+          <t>11,79; 41,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,9; 30,03</t>
+          <t>9,98; 33,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,32; 25,69</t>
+          <t>37,27; 74,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,33; 26,65</t>
+          <t>13,04; 31,0</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13,06; 33,28</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9,85; 25,99</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>29,55; 56,89</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,31%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27,47%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,15</t>
+          <t>9,64; 17,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 19,32</t>
+          <t>11,52; 20,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,4; 20,2</t>
+          <t>10,89; 23,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,71; 28,4</t>
+          <t>17,99; 32,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,38; 30,14</t>
+          <t>21,5; 30,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,89; 25,74</t>
+          <t>23,68; 32,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,72; 22,37</t>
+          <t>19,35; 28,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,77; 23,85</t>
+          <t>26,34; 38,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,2</t>
+          <t>17,18; 23,25</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 25,99</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 23,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23,49; 32,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,54%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11776</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3424</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9445</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17682</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4918</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14891</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12849</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29458</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8846</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18315</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22294</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3226; 31377</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20260</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17742</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 33083</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6134; 34773</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17267</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5045; 31400</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3205; 31636</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14721; 54949</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2288; 26590</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7943; 37431</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9889; 45936</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7213</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5858</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28477</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39426</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30242</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>31005</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21180</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>38996</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>37455</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36862</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>49657</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78422</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 25310</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21607</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6777; 77003</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6529; 114619</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16903; 49066</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18264; 47276</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10852; 36263</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22134; 61170</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20209; 65306</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21838; 59575</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24695; 105824</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39038; 164651</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36062</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33195</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26852</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>59013</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>65594</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>59938</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>53856</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45811</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>101656</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>93133</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>80708</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>104823</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21557; 53734</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20229; 49550</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13803; 42827</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39011; 82513</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45057; 91151</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44543; 81198</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37726; 73405</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29707; 67408</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>74709; 135180</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>70390; 119358</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>57964; 106196</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>77019; 136279</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17152</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>30918</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22420</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>46871</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>82190</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>75816</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57015</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>78230</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>99341</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>106734</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79436</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>125101</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7159; 31291</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18739; 46867</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12146; 37354</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>29549; 69752</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>63010; 102210</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>58302; 95576</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42772; 72705</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58427; 99803</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>75960; 124990</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>84683; 136403</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>59806; 99876</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>98782; 155490</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24692</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20267</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25894</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>52730</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>39286</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>34906</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24095</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>58467</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>63978</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>55173</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>49989</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>111197</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13547; 41480</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10917; 31738</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13405; 45170</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>34654; 74804</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23113; 54340</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23761; 47505</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14399; 37355</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39601; 77465</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44587; 87370</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>39373; 72489</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>34389; 72388</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>87344; 145259</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>18154</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12633</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10523</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32652</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>32501</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23772</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>22460</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>105164</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>50655</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>36405</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>32983</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>137816</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8660; 34134</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4449; 23400</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3845; 22654</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16861; 55442</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>17388; 52390</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11881; 41646</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11040; 36675</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>72464; 144761</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>31837; 75685</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22410; 57086</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>19340; 51018</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>96324; 185466</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>115049</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>106800</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>117591</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>240136</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>267494</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>230355</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>193496</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>339516</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>382544</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>337155</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>311087</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>579653</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>84444; 153527</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>79720; 139763</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>83681; 177027</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>183832; 327340</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>221083; 312757</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>194060; 265731</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>157370; 227735</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>286777; 415333</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>327285; 442906</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>291672; 392730</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>259012; 374502</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>495773; 684272</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>